--- a/downloads/Monthly_Progress_Report.xlsx
+++ b/downloads/Monthly_Progress_Report.xlsx
@@ -11,7 +11,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+  <si>
+    <t>कार्यालय महिला अधिकारिता, चित्तौड़गढ़</t>
+  </si>
+  <si>
+    <t>महिला सुरक्षा एवं सलाह केन्द्र</t>
+  </si>
+  <si>
+    <t>मासिक प्रगति रिपोर्ट</t>
+  </si>
   <si>
     <t>Start Month</t>
   </si>
@@ -471,28 +480,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Z2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="50" customWidth="1"/>
-    <col min="19" max="19" width="30" customWidth="1"/>
-    <col min="20" max="22" width="25" customWidth="1"/>
+    <col min="1" max="4" width="100" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="14" width="30" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="30" customWidth="1"/>
+    <col min="22" max="22" width="50" customWidth="1"/>
+    <col min="23" max="23" width="30" customWidth="1"/>
+    <col min="24" max="26" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,129 +513,141 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
         <v>2024</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>2024</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>36</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>48</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>12</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>36</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>48</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>25</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>6</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2">
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/Monthly_Progress_Report.xlsx
+++ b/downloads/Monthly_Progress_Report.xlsx
@@ -11,16 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
-  <si>
-    <t>कार्यालय महिला अधिकारिता, चित्तौड़गढ़</t>
-  </si>
-  <si>
-    <t>महिला सुरक्षा एवं सलाह केन्द्र</t>
-  </si>
-  <si>
-    <t>मासिक प्रगति रिपोर्ट</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Start Month</t>
   </si>
@@ -480,29 +471,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:V2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="100" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="25" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="30" customWidth="1"/>
-    <col min="22" max="22" width="50" customWidth="1"/>
-    <col min="23" max="23" width="30" customWidth="1"/>
-    <col min="24" max="26" width="25" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="30" customWidth="1"/>
+    <col min="18" max="18" width="50" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="20" max="22" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,141 +503,129 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>36</v>
+      </c>
+      <c r="K2">
+        <v>48</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="T2" t="s">
         <v>26</v>
       </c>
-      <c r="G2">
-        <v>2024</v>
-      </c>
-      <c r="H2">
-        <v>2024</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>36</v>
-      </c>
-      <c r="L2">
-        <v>48</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>36</v>
-      </c>
-      <c r="O2">
-        <v>48</v>
-      </c>
-      <c r="P2">
-        <v>25</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>6</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
         <v>27</v>
-      </c>
-      <c r="U2">
-        <v>5</v>
-      </c>
-      <c r="V2">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
